--- a/Dataset/Authors/STAT_Theb.xlsx
+++ b/Dataset/Authors/STAT_Theb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261DE01C-42BE-42B7-ABC7-1F889F0BB82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0A7ED3-3F93-4786-913A-D1F883253CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>P. Papinius Statius</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>Occurrences</t>
+  </si>
+  <si>
+    <t>accipiter</t>
   </si>
 </sst>
 </file>
@@ -858,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA138"/>
+  <dimension ref="A1:AA139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1018,11 +1021,11 @@
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9">
-        <v>2</v>
+      <c r="A6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1052,7 +1055,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="9">
         <v>2</v>
@@ -1085,10 +1088,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1118,10 +1121,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1151,10 +1154,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1184,10 +1187,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1217,10 +1220,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1250,10 +1253,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1283,10 +1286,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1316,10 +1319,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1349,10 +1352,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1382,10 +1385,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1415,10 +1418,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1448,10 +1451,10 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1481,10 +1484,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1514,10 +1517,10 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1547,10 +1550,10 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1580,10 +1583,10 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1613,7 +1616,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="9">
         <v>2</v>
@@ -1646,10 +1649,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1679,10 +1682,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1712,10 +1715,10 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1745,7 +1748,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="9">
         <v>1</v>
@@ -1778,10 +1781,10 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1811,7 +1814,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="9">
         <v>2</v>
@@ -1844,10 +1847,10 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1877,10 +1880,10 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1910,10 +1913,10 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="9">
         <v>1</v>
@@ -1976,10 +1979,10 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2009,10 +2012,10 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2042,10 +2045,10 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2075,10 +2078,10 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="9">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2108,10 +2111,10 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -2141,10 +2144,10 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -2174,10 +2177,10 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2207,10 +2210,10 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2240,10 +2243,10 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -2273,10 +2276,10 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -2306,7 +2309,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="9">
         <v>1</v>
@@ -2339,7 +2342,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="9">
         <v>1</v>
@@ -2372,7 +2375,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="9">
         <v>1</v>
@@ -2405,10 +2408,10 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2438,10 +2441,10 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2471,7 +2474,7 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="9">
         <v>1</v>
@@ -2504,7 +2507,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="9">
         <v>1</v>
@@ -2537,10 +2540,10 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2570,7 +2573,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="9">
         <v>2</v>
@@ -2603,10 +2606,10 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2636,10 +2639,10 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="9">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2669,10 +2672,10 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="9">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2702,10 +2705,10 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -2735,10 +2738,10 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -2768,10 +2771,10 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -2801,10 +2804,10 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -2834,10 +2837,10 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -2867,10 +2870,10 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="9">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -2900,10 +2903,10 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="9">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -2933,7 +2936,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="9">
         <v>1</v>
@@ -2966,7 +2969,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="9">
         <v>1</v>
@@ -2999,10 +3002,10 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -3032,10 +3035,10 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -3065,10 +3068,10 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -3098,10 +3101,10 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -3131,7 +3134,7 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="9">
         <v>1</v>
@@ -3164,10 +3167,10 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -3197,10 +3200,10 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -3230,7 +3233,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="9">
         <v>1</v>
@@ -3263,10 +3266,10 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -3296,10 +3299,10 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -3329,7 +3332,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="9">
         <v>2</v>
@@ -3362,10 +3365,10 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -3395,7 +3398,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="9">
         <v>1</v>
@@ -3428,10 +3431,10 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -3461,10 +3464,10 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -3494,7 +3497,7 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="9">
         <v>1</v>
@@ -3527,7 +3530,7 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="9">
         <v>1</v>
@@ -3560,10 +3563,10 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -3593,10 +3596,10 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -3626,7 +3629,7 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="9">
         <v>1</v>
@@ -3659,10 +3662,10 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -3692,10 +3695,10 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -3725,10 +3728,10 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -3758,10 +3761,10 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -3791,7 +3794,7 @@
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="9">
         <v>5</v>
@@ -3824,10 +3827,10 @@
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -3857,10 +3860,10 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -3890,10 +3893,10 @@
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -3923,10 +3926,10 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -3956,10 +3959,10 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -3989,10 +3992,10 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -4022,7 +4025,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="9">
         <v>1</v>
@@ -4055,10 +4058,10 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="9">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -4088,10 +4091,10 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="9">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -4121,10 +4124,10 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -4154,10 +4157,10 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -4187,7 +4190,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="9">
         <v>2</v>
@@ -4220,7 +4223,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="9">
         <v>2</v>
@@ -4253,7 +4256,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="9">
         <v>2</v>
@@ -4286,10 +4289,10 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -4319,7 +4322,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="9">
         <v>5</v>
@@ -4352,10 +4355,10 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
@@ -4385,10 +4388,10 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -4418,10 +4421,10 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -4451,7 +4454,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="9">
         <v>1</v>
@@ -4484,7 +4487,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="9">
         <v>1</v>
@@ -4517,7 +4520,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="9">
         <v>1</v>
@@ -4550,10 +4553,10 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -4583,10 +4586,10 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -4616,10 +4619,10 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -4649,10 +4652,10 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -4682,10 +4685,10 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -4715,10 +4718,10 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -4748,10 +4751,10 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -4781,10 +4784,10 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -4814,10 +4817,10 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -4847,10 +4850,10 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -4880,10 +4883,10 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -4913,10 +4916,10 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -4946,10 +4949,10 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -4979,7 +4982,7 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="9">
         <v>1</v>
@@ -5012,10 +5015,10 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -5045,10 +5048,10 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
@@ -5078,10 +5081,10 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -5111,7 +5114,7 @@
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="9">
         <v>1</v>
@@ -5144,10 +5147,10 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
@@ -5177,10 +5180,10 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
@@ -5210,10 +5213,10 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
@@ -5243,10 +5246,10 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -5276,10 +5279,10 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
@@ -5309,10 +5312,10 @@
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -5342,10 +5345,10 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -5375,10 +5378,10 @@
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
@@ -5406,7 +5409,18 @@
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
     </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B139">
+    <sortCondition ref="A139"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>